--- a/江西/导出模板/代理购电,d-3日24时段滚动撮合合同分析结果.xlsx
+++ b/江西/导出模板/代理购电,d-3日24时段滚动撮合合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98814F23-F85E-4EA5-B224-BCFBAD00E9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F66F81E-D876-4323-8909-5A537FEA5C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -257,20 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +626,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>395.78903550000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>406.51310243500001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-10.72406693500001</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>9015.0899999999983</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>439.02948889029403</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>450.92517371984093</v>
       </c>
     </row>
@@ -625,867 +696,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>1974965.2159999995</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>104476.834</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>98555.846000000005</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>114850.55399999999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>71935.366000000009</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>37231.289000000004</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>76614.689000000013</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>96198.634000000005</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>77404.343999999997</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>49824.292000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>55706.691999999995</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>142706.65700000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>101937.71699999999</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>53749.877999999997</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>50404.858999999997</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>85980.962</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>51194.831999999995</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>82580.031000000003</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>112921.811</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>116875.004</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>72097.312999999995</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>56555.890000000007</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>94527.618999999992</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>86933.413</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>83700.689999999988</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>4298.5699999999988</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>163.18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>207.27</v>
+      </c>
+      <c r="G3" s="1">
+        <v>219</v>
+      </c>
+      <c r="H3" s="1">
+        <v>187.32</v>
+      </c>
+      <c r="I3" s="1">
+        <v>118.72</v>
+      </c>
+      <c r="J3" s="1">
+        <v>180.08999999999997</v>
+      </c>
+      <c r="K3" s="1">
+        <v>217.09</v>
+      </c>
+      <c r="L3" s="1">
+        <v>158.57</v>
+      </c>
+      <c r="M3" s="1">
+        <v>116.71</v>
+      </c>
+      <c r="N3" s="1">
+        <v>167.76</v>
+      </c>
+      <c r="O3" s="1">
+        <v>232.30999999999997</v>
+      </c>
+      <c r="P3" s="1">
+        <v>196.14999999999998</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>158.39000000000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>138.57</v>
+      </c>
+      <c r="S3" s="1">
+        <v>192.04000000000002</v>
+      </c>
+      <c r="T3" s="1">
+        <v>202.91</v>
+      </c>
+      <c r="U3" s="1">
+        <v>213.43</v>
+      </c>
+      <c r="V3" s="1">
+        <v>190.66000000000003</v>
+      </c>
+      <c r="W3" s="1">
+        <v>266.08</v>
+      </c>
+      <c r="X3" s="1">
+        <v>142.05000000000001</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>165.01</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>156.18</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>165.8</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>143.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>459.44702912829155</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>640.25514156146585</v>
+      </c>
+      <c r="F4" s="1">
+        <v>475.49498721474407</v>
+      </c>
+      <c r="G4" s="1">
+        <v>524.43175342465747</v>
+      </c>
+      <c r="H4" s="1">
+        <v>384.0239483237242</v>
+      </c>
+      <c r="I4" s="1">
+        <v>313.60587095687333</v>
+      </c>
+      <c r="J4" s="1">
+        <v>425.4244488866679</v>
+      </c>
+      <c r="K4" s="1">
+        <v>443.12789165783778</v>
+      </c>
+      <c r="L4" s="1">
+        <v>488.13990035946273</v>
+      </c>
+      <c r="M4" s="1">
+        <v>426.90679461914152</v>
+      </c>
+      <c r="N4" s="1">
+        <v>332.06182641869339</v>
+      </c>
+      <c r="O4" s="1">
+        <v>614.29407688003107</v>
+      </c>
+      <c r="P4" s="1">
+        <v>519.69266887586036</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>339.35146158217054</v>
+      </c>
+      <c r="R4" s="1">
+        <v>363.75015515623869</v>
+      </c>
+      <c r="S4" s="1">
+        <v>447.72423453447192</v>
+      </c>
+      <c r="T4" s="1">
+        <v>252.30314917943915</v>
+      </c>
+      <c r="U4" s="1">
+        <v>386.91857283418449</v>
+      </c>
+      <c r="V4" s="1">
+        <v>592.26796915976081</v>
+      </c>
+      <c r="W4" s="1">
+        <v>439.24760974143118</v>
+      </c>
+      <c r="X4" s="1">
+        <v>507.54884195705728</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>342.74219744257931</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>605.24791266487375</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>524.32697828709286</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>584.17567001675036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>467.25351070239645</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.75000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.0499999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.25</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>294</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315.00000000000006</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.14999999999992</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.8</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>667.99999999999989</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.74999999999989</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>-7.8064815741049074</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>294.95514156146584</v>
+      </c>
+      <c r="F6" s="1">
+        <v>173.74498721474407</v>
+      </c>
+      <c r="G6" s="1">
+        <v>239.68175342465747</v>
+      </c>
+      <c r="H6" s="1">
+        <v>131.27394832372417</v>
+      </c>
+      <c r="I6" s="1">
+        <v>51.355870956873332</v>
+      </c>
+      <c r="J6" s="1">
+        <v>122.67444888666785</v>
+      </c>
+      <c r="K6" s="1">
+        <v>42.077891657837881</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1.1100996405372712</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-101.84320538085848</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-177.18817358130661</v>
+      </c>
+      <c r="O6" s="1">
+        <v>165.94407688003105</v>
+      </c>
+      <c r="P6" s="1">
+        <v>120.49266887586032</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>45.351461582170543</v>
+      </c>
+      <c r="R6" s="1">
+        <v>48.750155156238634</v>
+      </c>
+      <c r="S6" s="1">
+        <v>71.574234534471998</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-225.49685082056087</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-198.58142716581551</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-75.732030840239076</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-317.00239025856882</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-241.95115804294272</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-399.25780255742069</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-64.502087335126134</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-31.045521712907089</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>155.02567001675038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>1982925.1390000002</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>640.25514156146585</v>
-      </c>
-      <c r="F3" s="2">
-        <v>475.49498721474407</v>
-      </c>
-      <c r="G3" s="2">
-        <v>524.43175342465747</v>
-      </c>
-      <c r="H3" s="2">
-        <v>384.0239483237242</v>
-      </c>
-      <c r="I3" s="2">
-        <v>313.60587095687333</v>
-      </c>
-      <c r="J3" s="2">
-        <v>425.4244488866679</v>
-      </c>
-      <c r="K3" s="2">
-        <v>443.12789165783778</v>
-      </c>
-      <c r="L3" s="2">
-        <v>488.13990035946273</v>
-      </c>
-      <c r="M3" s="2">
-        <v>426.90679461914152</v>
-      </c>
-      <c r="N3" s="2">
-        <v>332.06182641869339</v>
-      </c>
-      <c r="O3" s="2">
-        <v>614.29407688003107</v>
-      </c>
-      <c r="P3" s="2">
-        <v>519.69266887586036</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>339.35146158217054</v>
-      </c>
-      <c r="R3" s="2">
-        <v>363.75015515623869</v>
-      </c>
-      <c r="S3" s="2">
-        <v>447.72423453447192</v>
-      </c>
-      <c r="T3" s="2">
-        <v>252.30314917943915</v>
-      </c>
-      <c r="U3" s="2">
-        <v>386.91857283418449</v>
-      </c>
-      <c r="V3" s="2">
-        <v>592.26796915976081</v>
-      </c>
-      <c r="W3" s="2">
-        <v>439.24760974143118</v>
-      </c>
-      <c r="X3" s="2">
-        <v>507.54884195705728</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>342.74219744257931</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>605.24791266487375</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>524.32697828709286</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>584.17567001675036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>467.25351070239645</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>94985.051000000007</v>
+      </c>
+      <c r="F7" s="1">
+        <v>63423.918000000005</v>
+      </c>
+      <c r="G7" s="1">
+        <v>109943.774</v>
+      </c>
+      <c r="H7" s="1">
+        <v>159839.179</v>
+      </c>
+      <c r="I7" s="1">
+        <v>96006.911000000007</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45422.87</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44826.131999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>116068.48</v>
+      </c>
+      <c r="M7" s="1">
+        <v>96165.171999999991</v>
+      </c>
+      <c r="N7" s="1">
+        <v>66309.59599999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>72818.554000000004</v>
+      </c>
+      <c r="P7" s="1">
+        <v>74912.65800000001</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>66748.453999999998</v>
+      </c>
+      <c r="R7" s="1">
+        <v>85899.502000000008</v>
+      </c>
+      <c r="S7" s="1">
+        <v>101596.965</v>
+      </c>
+      <c r="T7" s="1">
+        <v>81732.179000000018</v>
+      </c>
+      <c r="U7" s="1">
+        <v>92205.774999999994</v>
+      </c>
+      <c r="V7" s="1">
+        <v>67686.884999999995</v>
+      </c>
+      <c r="W7" s="1">
+        <v>103602.05600000001</v>
+      </c>
+      <c r="X7" s="1">
+        <v>44931.646000000001</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>59097.004000000001</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>65277.652999999998</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>102617.073</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>70807.652000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>4716.5199999999995</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>271.87</v>
+      </c>
+      <c r="F8" s="1">
+        <v>184.32</v>
+      </c>
+      <c r="G8" s="1">
+        <v>226.92000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>253.70000000000002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>169.93</v>
+      </c>
+      <c r="J8" s="1">
+        <v>139.53</v>
+      </c>
+      <c r="K8" s="1">
+        <v>262.51</v>
+      </c>
+      <c r="L8" s="1">
+        <v>200.82999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>210.54</v>
+      </c>
+      <c r="N8" s="1">
+        <v>198.4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>188.23</v>
+      </c>
+      <c r="P8" s="1">
+        <v>184.68</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>122.64</v>
+      </c>
+      <c r="R8" s="1">
+        <v>189.77</v>
+      </c>
+      <c r="S8" s="1">
+        <v>232.67</v>
+      </c>
+      <c r="T8" s="1">
+        <v>184.53</v>
+      </c>
+      <c r="U8" s="1">
+        <v>189.98</v>
+      </c>
+      <c r="V8" s="1">
+        <v>204.36</v>
+      </c>
+      <c r="W8" s="1">
+        <v>198.87</v>
+      </c>
+      <c r="X8" s="1">
+        <v>105.03</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>111.71</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>269.04999999999995</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>190.01</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>226.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>420.42122984742997</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75000000000003</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.0499999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315.00000000000006</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.14999999999992</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>667.99999999999989</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.74999999999989</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4298.5699999999988</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>163.18</v>
-      </c>
-      <c r="F5" s="2">
-        <v>207.27</v>
-      </c>
-      <c r="G5" s="2">
-        <v>219</v>
-      </c>
-      <c r="H5" s="2">
-        <v>187.32</v>
-      </c>
-      <c r="I5" s="2">
-        <v>118.72</v>
-      </c>
-      <c r="J5" s="2">
-        <v>180.08999999999997</v>
-      </c>
-      <c r="K5" s="2">
-        <v>217.09</v>
-      </c>
-      <c r="L5" s="2">
-        <v>158.57</v>
-      </c>
-      <c r="M5" s="2">
-        <v>116.71</v>
-      </c>
-      <c r="N5" s="2">
-        <v>167.76</v>
-      </c>
-      <c r="O5" s="2">
-        <v>232.30999999999997</v>
-      </c>
-      <c r="P5" s="2">
-        <v>196.14999999999998</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>158.39000000000001</v>
-      </c>
-      <c r="R5" s="2">
-        <v>138.57</v>
-      </c>
-      <c r="S5" s="2">
-        <v>192.04000000000002</v>
-      </c>
-      <c r="T5" s="2">
-        <v>202.91</v>
-      </c>
-      <c r="U5" s="2">
-        <v>213.43</v>
-      </c>
-      <c r="V5" s="2">
-        <v>190.66000000000003</v>
-      </c>
-      <c r="W5" s="2">
-        <v>266.08</v>
-      </c>
-      <c r="X5" s="2">
-        <v>142.05000000000001</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>165.01</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>156.18</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>165.8</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>143.28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>-7.8064815741049074</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>349.37672784786849</v>
+      </c>
+      <c r="F9" s="1">
+        <v>344.09677734375003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>484.50455667195484</v>
+      </c>
+      <c r="H9" s="1">
+        <v>630.03223886480089</v>
+      </c>
+      <c r="I9" s="1">
+        <v>564.97917377743784</v>
+      </c>
+      <c r="J9" s="1">
+        <v>325.54196230201393</v>
+      </c>
+      <c r="K9" s="1">
+        <v>170.75971201097101</v>
+      </c>
+      <c r="L9" s="1">
+        <v>577.94393267938062</v>
+      </c>
+      <c r="M9" s="1">
+        <v>456.75487793293433</v>
+      </c>
+      <c r="N9" s="1">
+        <v>334.22175403225799</v>
+      </c>
+      <c r="O9" s="1">
+        <v>386.85944854699045</v>
+      </c>
+      <c r="P9" s="1">
+        <v>405.63492527615341</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>544.26332354859755</v>
+      </c>
+      <c r="R9" s="1">
+        <v>452.65058755335406</v>
+      </c>
+      <c r="S9" s="1">
+        <v>436.65691752267162</v>
+      </c>
+      <c r="T9" s="1">
+        <v>442.92082046279745</v>
+      </c>
+      <c r="U9" s="1">
+        <v>485.34464154121486</v>
+      </c>
+      <c r="V9" s="1">
+        <v>331.21396065766288</v>
+      </c>
+      <c r="W9" s="1">
+        <v>520.95366822547396</v>
+      </c>
+      <c r="X9" s="1">
+        <v>427.79821003522801</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>529.02160952466215</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>242.62275785170047</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>540.06143360875751</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>312.6993993993994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>436.04375701788609</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>294.95514156146584</v>
-      </c>
-      <c r="F6" s="2">
-        <v>173.74498721474407</v>
-      </c>
-      <c r="G6" s="2">
-        <v>239.68175342465747</v>
-      </c>
-      <c r="H6" s="2">
-        <v>131.27394832372417</v>
-      </c>
-      <c r="I6" s="2">
-        <v>51.355870956873332</v>
-      </c>
-      <c r="J6" s="2">
-        <v>122.67444888666785</v>
-      </c>
-      <c r="K6" s="2">
-        <v>42.077891657837881</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-1.1100996405372712</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-101.84320538085848</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-177.18817358130661</v>
-      </c>
-      <c r="O6" s="2">
-        <v>165.94407688003105</v>
-      </c>
-      <c r="P6" s="2">
-        <v>120.49266887586032</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>45.351461582170543</v>
-      </c>
-      <c r="R6" s="2">
-        <v>48.750155156238634</v>
-      </c>
-      <c r="S6" s="2">
-        <v>71.574234534471998</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-225.49685082056087</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-198.58142716581551</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-75.732030840239076</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-317.00239025856882</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-241.95115804294272</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-399.25780255742069</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-64.502087335126134</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-31.045521712907089</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>155.02567001675038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>1982925.1390000002</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>94985.051000000007</v>
-      </c>
-      <c r="F7" s="2">
-        <v>63423.918000000005</v>
-      </c>
-      <c r="G7" s="2">
-        <v>109943.774</v>
-      </c>
-      <c r="H7" s="2">
-        <v>159839.179</v>
-      </c>
-      <c r="I7" s="2">
-        <v>96006.911000000007</v>
-      </c>
-      <c r="J7" s="2">
-        <v>45422.87</v>
-      </c>
-      <c r="K7" s="2">
-        <v>44826.131999999998</v>
-      </c>
-      <c r="L7" s="2">
-        <v>116068.48</v>
-      </c>
-      <c r="M7" s="2">
-        <v>96165.171999999991</v>
-      </c>
-      <c r="N7" s="2">
-        <v>66309.59599999999</v>
-      </c>
-      <c r="O7" s="2">
-        <v>72818.554000000004</v>
-      </c>
-      <c r="P7" s="2">
-        <v>74912.65800000001</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>66748.453999999998</v>
-      </c>
-      <c r="R7" s="2">
-        <v>85899.502000000008</v>
-      </c>
-      <c r="S7" s="2">
-        <v>101596.965</v>
-      </c>
-      <c r="T7" s="2">
-        <v>81732.179000000018</v>
-      </c>
-      <c r="U7" s="2">
-        <v>92205.774999999994</v>
-      </c>
-      <c r="V7" s="2">
-        <v>67686.884999999995</v>
-      </c>
-      <c r="W7" s="2">
-        <v>103602.05600000001</v>
-      </c>
-      <c r="X7" s="2">
-        <v>44931.646000000001</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>59097.004000000001</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>65277.652999999998</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>102617.073</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>70807.652000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>420.42122984742997</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>349.37672784786849</v>
-      </c>
-      <c r="F8" s="2">
-        <v>344.09677734375003</v>
-      </c>
-      <c r="G8" s="2">
-        <v>484.50455667195484</v>
-      </c>
-      <c r="H8" s="2">
-        <v>630.03223886480089</v>
-      </c>
-      <c r="I8" s="2">
-        <v>564.97917377743784</v>
-      </c>
-      <c r="J8" s="2">
-        <v>325.54196230201393</v>
-      </c>
-      <c r="K8" s="2">
-        <v>170.75971201097101</v>
-      </c>
-      <c r="L8" s="2">
-        <v>577.94393267938062</v>
-      </c>
-      <c r="M8" s="2">
-        <v>456.75487793293433</v>
-      </c>
-      <c r="N8" s="2">
-        <v>334.22175403225799</v>
-      </c>
-      <c r="O8" s="2">
-        <v>386.85944854699045</v>
-      </c>
-      <c r="P8" s="2">
-        <v>405.63492527615341</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>544.26332354859755</v>
-      </c>
-      <c r="R8" s="2">
-        <v>452.65058755335406</v>
-      </c>
-      <c r="S8" s="2">
-        <v>436.65691752267162</v>
-      </c>
-      <c r="T8" s="2">
-        <v>442.92082046279745</v>
-      </c>
-      <c r="U8" s="2">
-        <v>485.34464154121486</v>
-      </c>
-      <c r="V8" s="2">
-        <v>331.21396065766288</v>
-      </c>
-      <c r="W8" s="2">
-        <v>520.95366822547396</v>
-      </c>
-      <c r="X8" s="2">
-        <v>427.79821003522801</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>529.02160952466215</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>242.62275785170047</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>540.06143360875751</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>312.6993993993994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>436.04375701788609</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>376.36241521683155</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>606.14378634982643</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>487.44382425524412</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>335.10691860465118</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>451.49751015123877</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>427.53779939797892</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>425.87664231838795</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>601.04055420006966</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>435.71615417497856</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>490.10396144153225</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>373.92060338415763</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>382.99620248538008</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>462.54061888454009</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>506.68411906518418</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>479.29185713671728</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>446.01477957513686</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>325.99154147805035</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>372.08498996868269</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>309.65984085080703</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>317.54138389031704</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>328.86299615074745</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>511.03972152016365</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>483.00373625072359</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>452.01969704999118</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>4716.5199999999995</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>271.87</v>
-      </c>
-      <c r="F10">
-        <v>184.32</v>
-      </c>
-      <c r="G10">
-        <v>226.92000000000002</v>
-      </c>
-      <c r="H10">
-        <v>253.70000000000002</v>
-      </c>
-      <c r="I10">
-        <v>169.93</v>
-      </c>
-      <c r="J10">
-        <v>139.53</v>
-      </c>
-      <c r="K10">
-        <v>262.51</v>
-      </c>
-      <c r="L10">
-        <v>200.82999999999998</v>
-      </c>
-      <c r="M10">
-        <v>210.54</v>
-      </c>
-      <c r="N10">
-        <v>198.4</v>
-      </c>
-      <c r="O10">
-        <v>188.23</v>
-      </c>
-      <c r="P10">
-        <v>184.68</v>
-      </c>
-      <c r="Q10">
-        <v>122.64</v>
-      </c>
-      <c r="R10">
-        <v>189.77</v>
-      </c>
-      <c r="S10">
-        <v>232.67</v>
-      </c>
-      <c r="T10">
-        <v>184.53</v>
-      </c>
-      <c r="U10">
-        <v>189.98</v>
-      </c>
-      <c r="V10">
-        <v>204.36</v>
-      </c>
-      <c r="W10">
-        <v>198.87</v>
-      </c>
-      <c r="X10">
-        <v>105.03</v>
-      </c>
-      <c r="Y10">
-        <v>111.71</v>
-      </c>
-      <c r="Z10">
-        <v>269.04999999999995</v>
-      </c>
-      <c r="AA10">
-        <v>190.01</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>226.44</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>-15.622527170456124</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>-26.985687368963056</v>
@@ -1556,7 +1627,7 @@
       <c r="AA11">
         <v>57.05769735803392</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>-139.32029765059178</v>
       </c>
     </row>
@@ -1579,440 +1650,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>1974965.2159999995</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>104476.834</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>98555.846000000005</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>114850.55399999999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>71935.366000000009</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>37231.289000000004</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>76614.689000000013</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>96198.634000000005</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>77404.343999999997</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>49824.292000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>55706.691999999995</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>142706.65700000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>101937.71699999999</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>53749.877999999997</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>50404.858999999997</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>85980.962</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>51194.831999999995</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>82580.031000000003</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>112921.811</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>116875.004</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>72097.312999999995</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>56555.890000000007</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>94527.618999999992</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>86933.413</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>83700.689999999988</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>2008521.9234999998</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>56346.054000000004</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>62543.722500000003</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>62360.25</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>47345.130000000005</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>31134.32</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>54522.247499999998</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>87063.944499999983</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>77580.372499999998</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>61710.412499999999</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>85431.78</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>104156.18849999999</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>78303.08</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>46566.66</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>43649.55</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>72235.84599999999</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>96950.398000000001</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>124963.265</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>127360.88</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>201223</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>106466.47500000001</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>122437.42</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>104601.55499999999</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>92080.760500000004</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>61488.611999999994</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>48130.78</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>36012.123500000002</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>52490.303999999989</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>24590.236000000004</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>6096.9690000000046</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>22092.441500000015</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>9134.6895000000222</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>-176.02850000000035</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-11886.120499999997</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>-29725.088000000003</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>38550.468500000017</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>23634.636999999988</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>7183.2179999999935</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>6755.3089999999938</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>13745.116000000009</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>-45755.566000000006</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>-42383.233999999997</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-14439.069000000003</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-84347.995999999999</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-34369.162000000011</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-65881.53</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-10073.936000000002</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-5147.3475000000035</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>22212.077999999994</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>1982925.1390000002</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>94985.051000000007</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>63423.918000000005</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>109943.774</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>159839.179</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>96006.911000000007</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>45422.87</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>44826.131999999998</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>116068.48</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>96165.171999999991</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>66309.59599999999</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>72818.554000000004</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>74912.65800000001</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>66748.453999999998</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>85899.502000000008</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>101596.965</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>81732.179000000018</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>92205.774999999994</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>67686.884999999995</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>103602.05600000001</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>44931.646000000001</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>59097.004000000001</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>65277.652999999998</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>102617.073</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>70807.652000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>2056609.10085</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>102321.649825</v>
@@ -2083,16 +2154,16 @@
       <c r="AA6">
         <v>91775.53992499999</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>102355.34020000001</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-7336.5988249999937</v>
@@ -2163,12 +2234,12 @@
       <c r="AA7">
         <v>10841.533075000014</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>-31547.688200000004</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2260,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>4298.5699999999988</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>163.18</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>207.27</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>219</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>187.32</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>118.72</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>180.08999999999997</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>217.09</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>158.57</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>116.71</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>167.76</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>232.30999999999997</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>196.14999999999998</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>158.39000000000001</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>138.57</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>192.04000000000002</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>202.91</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>213.43</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>190.66000000000003</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>266.08</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>142.05000000000001</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>165.01</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>156.18</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>165.8</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>143.28</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>459.44702912829155</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>640.25514156146585</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>475.49498721474407</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>524.43175342465747</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>384.0239483237242</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>313.60587095687333</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>425.4244488866679</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>443.12789165783778</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>488.13990035946273</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>426.90679461914152</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>332.06182641869339</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>614.29407688003107</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>519.69266887586036</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>339.35146158217054</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>363.75015515623869</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>447.72423453447192</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>252.30314917943915</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>386.91857283418449</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>592.26796915976081</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>439.24760974143118</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>507.54884195705728</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>342.74219744257931</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>605.24791266487375</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>524.32697828709286</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>584.17567001675036</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>467.25351070239645</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.75000000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.0499999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>294</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315.00000000000006</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.14999999999992</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.8</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>667.99999999999989</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.74999999999989</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>4716.5199999999995</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>271.87</v>
+      </c>
+      <c r="F5" s="1">
+        <v>184.32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>226.92000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>253.70000000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>169.93</v>
+      </c>
+      <c r="J5" s="1">
+        <v>139.53</v>
+      </c>
+      <c r="K5" s="1">
+        <v>262.51</v>
+      </c>
+      <c r="L5" s="1">
+        <v>200.82999999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>210.54</v>
+      </c>
+      <c r="N5" s="1">
+        <v>198.4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>188.23</v>
+      </c>
+      <c r="P5" s="1">
+        <v>184.68</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>122.64</v>
+      </c>
+      <c r="R5" s="1">
+        <v>189.77</v>
+      </c>
+      <c r="S5" s="1">
+        <v>232.67</v>
+      </c>
+      <c r="T5" s="1">
+        <v>184.53</v>
+      </c>
+      <c r="U5" s="1">
+        <v>189.98</v>
+      </c>
+      <c r="V5" s="1">
+        <v>204.36</v>
+      </c>
+      <c r="W5" s="1">
+        <v>198.87</v>
+      </c>
+      <c r="X5" s="1">
+        <v>105.03</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>111.71</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>269.04999999999995</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>190.01</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>226.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>420.42122984742997</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75000000000003</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.0499999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315.00000000000006</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.14999999999992</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>667.99999999999989</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.74999999999989</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>349.37672784786849</v>
+      </c>
+      <c r="F6" s="1">
+        <v>344.09677734375003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>484.50455667195484</v>
+      </c>
+      <c r="H6" s="1">
+        <v>630.03223886480089</v>
+      </c>
+      <c r="I6" s="1">
+        <v>564.97917377743784</v>
+      </c>
+      <c r="J6" s="1">
+        <v>325.54196230201393</v>
+      </c>
+      <c r="K6" s="1">
+        <v>170.75971201097101</v>
+      </c>
+      <c r="L6" s="1">
+        <v>577.94393267938062</v>
+      </c>
+      <c r="M6" s="1">
+        <v>456.75487793293433</v>
+      </c>
+      <c r="N6" s="1">
+        <v>334.22175403225799</v>
+      </c>
+      <c r="O6" s="1">
+        <v>386.85944854699045</v>
+      </c>
+      <c r="P6" s="1">
+        <v>405.63492527615341</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>544.26332354859755</v>
+      </c>
+      <c r="R6" s="1">
+        <v>452.65058755335406</v>
+      </c>
+      <c r="S6" s="1">
+        <v>436.65691752267162</v>
+      </c>
+      <c r="T6" s="1">
+        <v>442.92082046279745</v>
+      </c>
+      <c r="U6" s="1">
+        <v>485.34464154121486</v>
+      </c>
+      <c r="V6" s="1">
+        <v>331.21396065766288</v>
+      </c>
+      <c r="W6" s="1">
+        <v>520.95366822547396</v>
+      </c>
+      <c r="X6" s="1">
+        <v>427.79821003522801</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>529.02160952466215</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>242.62275785170047</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>540.06143360875751</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>312.6993993993994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4716.5199999999995</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>271.87</v>
-      </c>
-      <c r="F5" s="2">
-        <v>184.32</v>
-      </c>
-      <c r="G5" s="2">
-        <v>226.92000000000002</v>
-      </c>
-      <c r="H5" s="2">
-        <v>253.70000000000002</v>
-      </c>
-      <c r="I5" s="2">
-        <v>169.93</v>
-      </c>
-      <c r="J5" s="2">
-        <v>139.53</v>
-      </c>
-      <c r="K5" s="2">
-        <v>262.51</v>
-      </c>
-      <c r="L5" s="2">
-        <v>200.82999999999998</v>
-      </c>
-      <c r="M5" s="2">
-        <v>210.54</v>
-      </c>
-      <c r="N5" s="2">
-        <v>198.4</v>
-      </c>
-      <c r="O5" s="2">
-        <v>188.23</v>
-      </c>
-      <c r="P5" s="2">
-        <v>184.68</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>122.64</v>
-      </c>
-      <c r="R5" s="2">
-        <v>189.77</v>
-      </c>
-      <c r="S5" s="2">
-        <v>232.67</v>
-      </c>
-      <c r="T5" s="2">
-        <v>184.53</v>
-      </c>
-      <c r="U5" s="2">
-        <v>189.98</v>
-      </c>
-      <c r="V5" s="2">
-        <v>204.36</v>
-      </c>
-      <c r="W5" s="2">
-        <v>198.87</v>
-      </c>
-      <c r="X5" s="2">
-        <v>105.03</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>111.71</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>269.04999999999995</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>190.01</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>226.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>420.42122984742997</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>349.37672784786849</v>
-      </c>
-      <c r="F6" s="2">
-        <v>344.09677734375003</v>
-      </c>
-      <c r="G6" s="2">
-        <v>484.50455667195484</v>
-      </c>
-      <c r="H6" s="2">
-        <v>630.03223886480089</v>
-      </c>
-      <c r="I6" s="2">
-        <v>564.97917377743784</v>
-      </c>
-      <c r="J6" s="2">
-        <v>325.54196230201393</v>
-      </c>
-      <c r="K6" s="2">
-        <v>170.75971201097101</v>
-      </c>
-      <c r="L6" s="2">
-        <v>577.94393267938062</v>
-      </c>
-      <c r="M6" s="2">
-        <v>456.75487793293433</v>
-      </c>
-      <c r="N6" s="2">
-        <v>334.22175403225799</v>
-      </c>
-      <c r="O6" s="2">
-        <v>386.85944854699045</v>
-      </c>
-      <c r="P6" s="2">
-        <v>405.63492527615341</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>544.26332354859755</v>
-      </c>
-      <c r="R6" s="2">
-        <v>452.65058755335406</v>
-      </c>
-      <c r="S6" s="2">
-        <v>436.65691752267162</v>
-      </c>
-      <c r="T6" s="2">
-        <v>442.92082046279745</v>
-      </c>
-      <c r="U6" s="2">
-        <v>485.34464154121486</v>
-      </c>
-      <c r="V6" s="2">
-        <v>331.21396065766288</v>
-      </c>
-      <c r="W6" s="2">
-        <v>520.95366822547396</v>
-      </c>
-      <c r="X6" s="2">
-        <v>427.79821003522801</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>529.02160952466215</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>242.62275785170047</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>540.06143360875751</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>312.6993993993994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>436.04375701788609</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>376.36241521683155</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>606.14378634982643</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>487.44382425524412</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>335.10691860465118</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>451.49751015123877</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>427.53779939797892</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>425.87664231838795</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>601.04055420006966</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>435.71615417497856</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>490.10396144153225</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>373.92060338415763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>382.99620248538008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>462.54061888454009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>506.68411906518418</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>479.29185713671728</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>446.01477957513686</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>325.99154147805035</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>372.08498996868269</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>309.65984085080703</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>317.54138389031704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>328.86299615074745</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>511.03972152016365</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>483.00373625072359</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>452.01969704999118</v>
       </c>
     </row>
@@ -2801,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2883,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>949.02999999999952</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>2006.629999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2898.5800000000036</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>3160.8499999999963</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>10.527127294347583</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>22.258568688720789</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>32.152535360157287</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>35.061768656774319</v>
       </c>
     </row>
@@ -2876,104 +2947,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/江西/导出模板/代理购电,d-3日24时段滚动撮合合同分析结果.xlsx
+++ b/江西/导出模板/代理购电,d-3日24时段滚动撮合合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F66F81E-D876-4323-8909-5A537FEA5C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE10F7F-D0C0-40F3-9D00-05CC4B40AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>-139.32029765059178</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3957890.355</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>199461.88500000001</v>
+      </c>
+      <c r="F12">
+        <v>161979.76400000002</v>
+      </c>
+      <c r="G12">
+        <v>224794.32799999998</v>
+      </c>
+      <c r="H12">
+        <v>231774.54500000004</v>
+      </c>
+      <c r="I12">
+        <v>133238.20000000001</v>
+      </c>
+      <c r="J12">
+        <v>122037.55900000002</v>
+      </c>
+      <c r="K12">
+        <v>141024.766</v>
+      </c>
+      <c r="L12">
+        <v>193472.82399999999</v>
+      </c>
+      <c r="M12">
+        <v>145989.46400000001</v>
+      </c>
+      <c r="N12">
+        <v>122016.288</v>
+      </c>
+      <c r="O12">
+        <v>215525.21100000001</v>
+      </c>
+      <c r="P12">
+        <v>176850.375</v>
+      </c>
+      <c r="Q12">
+        <v>120498.33199999999</v>
+      </c>
+      <c r="R12">
+        <v>136304.361</v>
+      </c>
+      <c r="S12">
+        <v>187577.927</v>
+      </c>
+      <c r="T12">
+        <v>132927.011</v>
+      </c>
+      <c r="U12">
+        <v>174785.80600000001</v>
+      </c>
+      <c r="V12">
+        <v>180608.696</v>
+      </c>
+      <c r="W12">
+        <v>220477.06</v>
+      </c>
+      <c r="X12">
+        <v>117028.959</v>
+      </c>
+      <c r="Y12">
+        <v>115652.89400000001</v>
+      </c>
+      <c r="Z12">
+        <v>159805.272</v>
+      </c>
+      <c r="AA12">
+        <v>189550.486</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>154508.34199999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>9015.0899999999983</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>435.05</v>
+      </c>
+      <c r="F13">
+        <v>391.59000000000003</v>
+      </c>
+      <c r="G13">
+        <v>445.92</v>
+      </c>
+      <c r="H13">
+        <v>441.02</v>
+      </c>
+      <c r="I13">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="J13">
+        <v>319.62</v>
+      </c>
+      <c r="K13">
+        <v>479.6</v>
+      </c>
+      <c r="L13">
+        <v>359.4</v>
+      </c>
+      <c r="M13">
+        <v>327.25</v>
+      </c>
+      <c r="N13">
+        <v>366.16</v>
+      </c>
+      <c r="O13">
+        <v>420.53999999999996</v>
+      </c>
+      <c r="P13">
+        <v>380.83</v>
+      </c>
+      <c r="Q13">
+        <v>281.02999999999997</v>
+      </c>
+      <c r="R13">
+        <v>328.34000000000003</v>
+      </c>
+      <c r="S13">
+        <v>424.71</v>
+      </c>
+      <c r="T13">
+        <v>387.44</v>
+      </c>
+      <c r="U13">
+        <v>403.41</v>
+      </c>
+      <c r="V13">
+        <v>395.02000000000004</v>
+      </c>
+      <c r="W13">
+        <v>464.95</v>
+      </c>
+      <c r="X13">
+        <v>247.08</v>
+      </c>
+      <c r="Y13">
+        <v>276.71999999999997</v>
+      </c>
+      <c r="Z13">
+        <v>425.23</v>
+      </c>
+      <c r="AA13">
+        <v>355.81</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>369.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>439.02948889029403</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>458.48037007240549</v>
+      </c>
+      <c r="F14">
+        <v>413.64632396128604</v>
+      </c>
+      <c r="G14">
+        <v>504.11358091137419</v>
+      </c>
+      <c r="H14">
+        <v>525.54202757244582</v>
+      </c>
+      <c r="I14">
+        <v>461.59085397540281</v>
+      </c>
+      <c r="J14">
+        <v>381.82078405606666</v>
+      </c>
+      <c r="K14">
+        <v>294.04663469557966</v>
+      </c>
+      <c r="L14">
+        <v>538.32171396772401</v>
+      </c>
+      <c r="M14">
+        <v>446.10989763178003</v>
+      </c>
+      <c r="N14">
+        <v>333.23216080402005</v>
+      </c>
+      <c r="O14">
+        <v>512.49634041946081</v>
+      </c>
+      <c r="P14">
+        <v>464.3814169051808</v>
+      </c>
+      <c r="Q14">
+        <v>428.77391025869127</v>
+      </c>
+      <c r="R14">
+        <v>415.13175671559964</v>
+      </c>
+      <c r="S14">
+        <v>441.66119705210616</v>
+      </c>
+      <c r="T14">
+        <v>343.09057144332024</v>
+      </c>
+      <c r="U14">
+        <v>433.27088074167722</v>
+      </c>
+      <c r="V14">
+        <v>457.21405498455766</v>
+      </c>
+      <c r="W14">
+        <v>474.19520378535327</v>
+      </c>
+      <c r="X14">
+        <v>473.64804516755703</v>
+      </c>
+      <c r="Y14">
+        <v>417.94194131251817</v>
+      </c>
+      <c r="Z14">
+        <v>375.80902570373678</v>
+      </c>
+      <c r="AA14">
+        <v>532.72950732132324</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>417.90636698041749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>450.92517371984093</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>364.71142127341687</v>
+      </c>
+      <c r="F15">
+        <v>445.02705687070647</v>
+      </c>
+      <c r="G15">
+        <v>387.89693801578761</v>
+      </c>
+      <c r="H15">
+        <v>300.12642340483421</v>
+      </c>
+      <c r="I15">
+        <v>373.66115329984416</v>
+      </c>
+      <c r="J15">
+        <v>357.22607048995678</v>
+      </c>
+      <c r="K15">
+        <v>414.63891133236018</v>
+      </c>
+      <c r="L15">
+        <v>551.717715637173</v>
+      </c>
+      <c r="M15">
+        <v>468.89561986249038</v>
+      </c>
+      <c r="N15">
+        <v>498.87591749508402</v>
+      </c>
+      <c r="O15">
+        <v>415.03605762828744</v>
+      </c>
+      <c r="P15">
+        <v>391.34211767717881</v>
+      </c>
+      <c r="Q15">
+        <v>367.55023129203289</v>
+      </c>
+      <c r="R15">
+        <v>425.78727926844118</v>
+      </c>
+      <c r="S15">
+        <v>432.65447575993022</v>
+      </c>
+      <c r="T15">
+        <v>462.66132891544498</v>
+      </c>
+      <c r="U15">
+        <v>463.2883122629583</v>
+      </c>
+      <c r="V15">
+        <v>514.91106412333545</v>
+      </c>
+      <c r="W15">
+        <v>565.23293375631795</v>
+      </c>
+      <c r="X15">
+        <v>565.88087481787284</v>
+      </c>
+      <c r="Y15">
+        <v>575.21937445793594</v>
+      </c>
+      <c r="Z15">
+        <v>569.33140200597313</v>
+      </c>
+      <c r="AA15">
+        <v>516.72606285658071</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>443.15685437628474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>-11.895684829546894</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>93.768948798988617</v>
+      </c>
+      <c r="F16">
+        <v>-31.380732909420431</v>
+      </c>
+      <c r="G16">
+        <v>116.21664289558657</v>
+      </c>
+      <c r="H16">
+        <v>225.4156041676116</v>
+      </c>
+      <c r="I16">
+        <v>87.929700675558649</v>
+      </c>
+      <c r="J16">
+        <v>24.594713566109874</v>
+      </c>
+      <c r="K16">
+        <v>-120.59227663678053</v>
+      </c>
+      <c r="L16">
+        <v>-13.396001669448992</v>
+      </c>
+      <c r="M16">
+        <v>-22.785722230710348</v>
+      </c>
+      <c r="N16">
+        <v>-165.64375669106397</v>
+      </c>
+      <c r="O16">
+        <v>97.46028279117337</v>
+      </c>
+      <c r="P16">
+        <v>73.039299228001994</v>
+      </c>
+      <c r="Q16">
+        <v>61.223678966658383</v>
+      </c>
+      <c r="R16">
+        <v>-10.655522552841546</v>
+      </c>
+      <c r="S16">
+        <v>9.0067212921759392</v>
+      </c>
+      <c r="T16">
+        <v>-119.57075747212474</v>
+      </c>
+      <c r="U16">
+        <v>-30.017431521281082</v>
+      </c>
+      <c r="V16">
+        <v>-57.697009138777787</v>
+      </c>
+      <c r="W16">
+        <v>-91.037729970964676</v>
+      </c>
+      <c r="X16">
+        <v>-92.232829650315807</v>
+      </c>
+      <c r="Y16">
+        <v>-157.27743314541777</v>
+      </c>
+      <c r="Z16">
+        <v>-193.52237630223635</v>
+      </c>
+      <c r="AA16">
+        <v>16.003444464742529</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-25.250487395867253</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3957890.355</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>199461.88500000001</v>
+      </c>
+      <c r="F8">
+        <v>161979.76400000002</v>
+      </c>
+      <c r="G8">
+        <v>224794.32799999998</v>
+      </c>
+      <c r="H8">
+        <v>231774.54500000004</v>
+      </c>
+      <c r="I8">
+        <v>133238.20000000001</v>
+      </c>
+      <c r="J8">
+        <v>122037.55900000002</v>
+      </c>
+      <c r="K8">
+        <v>141024.766</v>
+      </c>
+      <c r="L8">
+        <v>193472.82399999999</v>
+      </c>
+      <c r="M8">
+        <v>145989.46400000001</v>
+      </c>
+      <c r="N8">
+        <v>122016.288</v>
+      </c>
+      <c r="O8">
+        <v>215525.21100000001</v>
+      </c>
+      <c r="P8">
+        <v>176850.375</v>
+      </c>
+      <c r="Q8">
+        <v>120498.33199999999</v>
+      </c>
+      <c r="R8">
+        <v>136304.361</v>
+      </c>
+      <c r="S8">
+        <v>187577.927</v>
+      </c>
+      <c r="T8">
+        <v>132927.011</v>
+      </c>
+      <c r="U8">
+        <v>174785.80600000001</v>
+      </c>
+      <c r="V8">
+        <v>180608.696</v>
+      </c>
+      <c r="W8">
+        <v>220477.06</v>
+      </c>
+      <c r="X8">
+        <v>117028.959</v>
+      </c>
+      <c r="Y8">
+        <v>115652.89400000001</v>
+      </c>
+      <c r="Z8">
+        <v>159805.272</v>
+      </c>
+      <c r="AA8">
+        <v>189550.486</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>154508.34199999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4065131.0243500001</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>158667.703825</v>
+      </c>
+      <c r="F9">
+        <v>174268.14519999997</v>
+      </c>
+      <c r="G9">
+        <v>172971.00260000001</v>
+      </c>
+      <c r="H9">
+        <v>132361.75524999999</v>
+      </c>
+      <c r="I9">
+        <v>107857.29190000001</v>
+      </c>
+      <c r="J9">
+        <v>114176.59664999999</v>
+      </c>
+      <c r="K9">
+        <v>198860.82187499997</v>
+      </c>
+      <c r="L9">
+        <v>198287.34699999998</v>
+      </c>
+      <c r="M9">
+        <v>153446.09159999999</v>
+      </c>
+      <c r="N9">
+        <v>182668.40594999999</v>
+      </c>
+      <c r="O9">
+        <v>174539.26367499999</v>
+      </c>
+      <c r="P9">
+        <v>149034.81867499999</v>
+      </c>
+      <c r="Q9">
+        <v>103292.6415</v>
+      </c>
+      <c r="R9">
+        <v>139802.99527499999</v>
+      </c>
+      <c r="S9">
+        <v>183752.68239999996</v>
+      </c>
+      <c r="T9">
+        <v>179253.505275</v>
+      </c>
+      <c r="U9">
+        <v>186895.13805000001</v>
+      </c>
+      <c r="V9">
+        <v>203400.16855</v>
+      </c>
+      <c r="W9">
+        <v>262805.05255000002</v>
+      </c>
+      <c r="X9">
+        <v>139817.84655000002</v>
+      </c>
+      <c r="Y9">
+        <v>159174.7053</v>
+      </c>
+      <c r="Z9">
+        <v>242096.79207499998</v>
+      </c>
+      <c r="AA9">
+        <v>183856.30042499999</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>163843.9522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>40794.181175000005</v>
+      </c>
+      <c r="F10">
+        <v>-12288.381199999945</v>
+      </c>
+      <c r="G10">
+        <v>51823.325399999972</v>
+      </c>
+      <c r="H10">
+        <v>99412.789750000054</v>
+      </c>
+      <c r="I10">
+        <v>25380.908100000001</v>
+      </c>
+      <c r="J10">
+        <v>7860.9623500000307</v>
+      </c>
+      <c r="K10">
+        <v>-57836.055874999962</v>
+      </c>
+      <c r="L10">
+        <v>-4814.5229999999865</v>
+      </c>
+      <c r="M10">
+        <v>-7456.627599999978</v>
+      </c>
+      <c r="N10">
+        <v>-60652.117949999985</v>
+      </c>
+      <c r="O10">
+        <v>40985.947325000016</v>
+      </c>
+      <c r="P10">
+        <v>27815.556325000012</v>
+      </c>
+      <c r="Q10">
+        <v>17205.690499999997</v>
+      </c>
+      <c r="R10">
+        <v>-3498.6342749999894</v>
+      </c>
+      <c r="S10">
+        <v>3825.2446000000346</v>
+      </c>
+      <c r="T10">
+        <v>-46326.494275000005</v>
+      </c>
+      <c r="U10">
+        <v>-12109.332049999997</v>
+      </c>
+      <c r="V10">
+        <v>-22791.472550000006</v>
+      </c>
+      <c r="W10">
+        <v>-42327.992550000024</v>
+      </c>
+      <c r="X10">
+        <v>-22788.887550000014</v>
+      </c>
+      <c r="Y10">
+        <v>-43521.811299999987</v>
+      </c>
+      <c r="Z10">
+        <v>-82291.520074999979</v>
+      </c>
+      <c r="AA10">
+        <v>5694.1855750000104</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-9335.6102000000246</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>452.01969704999118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>9015.0899999999983</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>435.05</v>
+      </c>
+      <c r="F8">
+        <v>391.59000000000003</v>
+      </c>
+      <c r="G8">
+        <v>445.92</v>
+      </c>
+      <c r="H8">
+        <v>441.02</v>
+      </c>
+      <c r="I8">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="J8">
+        <v>319.62</v>
+      </c>
+      <c r="K8">
+        <v>479.6</v>
+      </c>
+      <c r="L8">
+        <v>359.4</v>
+      </c>
+      <c r="M8">
+        <v>327.25</v>
+      </c>
+      <c r="N8">
+        <v>366.16</v>
+      </c>
+      <c r="O8">
+        <v>420.53999999999996</v>
+      </c>
+      <c r="P8">
+        <v>380.83</v>
+      </c>
+      <c r="Q8">
+        <v>281.02999999999997</v>
+      </c>
+      <c r="R8">
+        <v>328.34000000000003</v>
+      </c>
+      <c r="S8">
+        <v>424.71</v>
+      </c>
+      <c r="T8">
+        <v>387.44</v>
+      </c>
+      <c r="U8">
+        <v>403.41</v>
+      </c>
+      <c r="V8">
+        <v>395.02000000000004</v>
+      </c>
+      <c r="W8">
+        <v>464.95</v>
+      </c>
+      <c r="X8">
+        <v>247.08</v>
+      </c>
+      <c r="Y8">
+        <v>276.71999999999997</v>
+      </c>
+      <c r="Z8">
+        <v>425.23</v>
+      </c>
+      <c r="AA8">
+        <v>355.81</v>
+      </c>
+      <c r="AB8">
+        <v>369.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>439.02948889029403</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>458.48037007240549</v>
+      </c>
+      <c r="F9">
+        <v>413.64632396128604</v>
+      </c>
+      <c r="G9">
+        <v>504.11358091137419</v>
+      </c>
+      <c r="H9">
+        <v>525.54202757244582</v>
+      </c>
+      <c r="I9">
+        <v>461.59085397540281</v>
+      </c>
+      <c r="J9">
+        <v>381.82078405606666</v>
+      </c>
+      <c r="K9">
+        <v>294.04663469557966</v>
+      </c>
+      <c r="L9">
+        <v>538.32171396772401</v>
+      </c>
+      <c r="M9">
+        <v>446.10989763178003</v>
+      </c>
+      <c r="N9">
+        <v>333.23216080402005</v>
+      </c>
+      <c r="O9">
+        <v>512.49634041946081</v>
+      </c>
+      <c r="P9">
+        <v>464.3814169051808</v>
+      </c>
+      <c r="Q9">
+        <v>428.77391025869127</v>
+      </c>
+      <c r="R9">
+        <v>415.13175671559964</v>
+      </c>
+      <c r="S9">
+        <v>441.66119705210616</v>
+      </c>
+      <c r="T9">
+        <v>343.09057144332024</v>
+      </c>
+      <c r="U9">
+        <v>433.27088074167722</v>
+      </c>
+      <c r="V9">
+        <v>457.21405498455766</v>
+      </c>
+      <c r="W9">
+        <v>474.19520378535327</v>
+      </c>
+      <c r="X9">
+        <v>473.64804516755703</v>
+      </c>
+      <c r="Y9">
+        <v>417.94194131251817</v>
+      </c>
+      <c r="Z9">
+        <v>375.80902570373678</v>
+      </c>
+      <c r="AA9">
+        <v>532.72950732132324</v>
+      </c>
+      <c r="AB9">
+        <v>417.90636698041749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>450.92517371984093</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>364.71142127341687</v>
+      </c>
+      <c r="F10">
+        <v>445.02705687070647</v>
+      </c>
+      <c r="G10">
+        <v>387.89693801578761</v>
+      </c>
+      <c r="H10">
+        <v>300.12642340483421</v>
+      </c>
+      <c r="I10">
+        <v>373.66115329984416</v>
+      </c>
+      <c r="J10">
+        <v>357.22607048995678</v>
+      </c>
+      <c r="K10">
+        <v>414.63891133236018</v>
+      </c>
+      <c r="L10">
+        <v>551.717715637173</v>
+      </c>
+      <c r="M10">
+        <v>468.89561986249038</v>
+      </c>
+      <c r="N10">
+        <v>498.87591749508402</v>
+      </c>
+      <c r="O10">
+        <v>415.03605762828744</v>
+      </c>
+      <c r="P10">
+        <v>391.34211767717881</v>
+      </c>
+      <c r="Q10">
+        <v>367.55023129203289</v>
+      </c>
+      <c r="R10">
+        <v>425.78727926844118</v>
+      </c>
+      <c r="S10">
+        <v>432.65447575993022</v>
+      </c>
+      <c r="T10">
+        <v>462.66132891544498</v>
+      </c>
+      <c r="U10">
+        <v>463.2883122629583</v>
+      </c>
+      <c r="V10">
+        <v>514.91106412333545</v>
+      </c>
+      <c r="W10">
+        <v>565.23293375631795</v>
+      </c>
+      <c r="X10">
+        <v>565.88087481787284</v>
+      </c>
+      <c r="Y10">
+        <v>575.21937445793594</v>
+      </c>
+      <c r="Z10">
+        <v>569.33140200597313</v>
+      </c>
+      <c r="AA10">
+        <v>516.72606285658071</v>
+      </c>
+      <c r="AB10">
+        <v>443.15685437628474</v>
       </c>
     </row>
   </sheetData>
